--- a/docs/FCI_ORG_Hirarchy.xlsx
+++ b/docs/FCI_ORG_Hirarchy.xlsx
@@ -12,7 +12,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
+    <sheet name="Evaluation Warning" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$2:$N$189</definedName>
@@ -24,6 +24,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
+    <t>zone_master</t>
+  </si>
+  <si>
+    <t>region_master</t>
+  </si>
+  <si>
+    <t>district_master</t>
+  </si>
+  <si>
     <t>Zone_Code</t>
   </si>
   <si>
@@ -48,9 +57,6 @@
     <t>District Name</t>
   </si>
   <si>
-    <t>Region Code</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -186,6 +192,9 @@
     <t>PATNA</t>
   </si>
   <si>
+    <t>headquarter_master</t>
+  </si>
+  <si>
     <t>FD</t>
   </si>
   <si>
@@ -196,6 +205,15 @@
   </si>
   <si>
     <t>MADHUBANI</t>
+  </si>
+  <si>
+    <t>Headquarter_Code</t>
+  </si>
+  <si>
+    <t>Headquarter_Name</t>
+  </si>
+  <si>
+    <t>HRMS_Headquarter_Code</t>
   </si>
   <si>
     <t>FE</t>
@@ -1886,13 +1904,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0" topLeftCell="G1">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.25" bestFit="1" customWidth="1"/>
@@ -1900,39 +1920,50 @@
     <col min="10" max="10" width="19.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>8</v>
@@ -1940,2503 +1971,2515 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="J9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="15">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="10" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="L29" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="L30" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="L31" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="L32" s="6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="L33" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="L34" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="L35" s="6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="L36" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="L37" s="6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="L38" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
       <c r="L39" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="L40" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="L41" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="L42" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="L43" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="L44" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="L45" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="L46" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
       <c r="L47" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="L48" s="12" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="L49" s="12" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="L50" s="12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
       <c r="L51" s="12" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
       <c r="L52" s="12" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
       <c r="L53" s="12" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
       <c r="L54" s="12" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55">
       <c r="L55" s="12" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
       <c r="L56" s="12" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57">
       <c r="L57" s="12" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58">
       <c r="L58" s="12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59">
       <c r="L59" s="13" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60">
       <c r="L60" s="13" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61">
       <c r="L61" s="13" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62">
       <c r="L62" s="12" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63">
       <c r="L63" s="12" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64">
       <c r="L64" s="12" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65">
       <c r="L65" s="13" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66">
       <c r="L66" s="12" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67">
       <c r="L67" s="12" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68">
       <c r="L68" s="14" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="N68" s="14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="L69" s="14" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="N69" s="14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="L70" s="14" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M70" s="15" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="N70" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
       <c r="L71" s="14" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="N71" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72">
       <c r="L72" s="14" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N72" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="L73" s="14" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N73" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
       <c r="L74" s="14" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="N74" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75">
       <c r="L75" s="14" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N75" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
       <c r="L76" s="14" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="N76" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77">
       <c r="L77" s="14" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N77" s="14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78">
       <c r="L78" s="14" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79">
       <c r="L79" s="14" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N79" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80">
       <c r="L80" s="14" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N80" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81">
       <c r="L81" s="14" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N81" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
       <c r="L82" s="14" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N82" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
       <c r="L83" s="14" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="N83" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84">
       <c r="L84" s="14" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85">
       <c r="L85" s="14" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="N85" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86">
       <c r="L86" s="14" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="N86" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87">
       <c r="L87" s="14" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="N87" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88">
       <c r="L88" s="14" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="N88" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89">
       <c r="L89" s="14" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N89" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90">
       <c r="L90" s="14" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N90" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91">
       <c r="L91" s="14" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="N91" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92">
       <c r="L92" s="14" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N92" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93">
       <c r="L93" s="14" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="N93" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94">
       <c r="L94" s="14" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="N94" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95">
       <c r="L95" s="14" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N95" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96">
       <c r="L96" s="14" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N96" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97">
       <c r="L97" s="14" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="N97" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98">
       <c r="L98" s="14" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="N98" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="L99" s="14" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N99" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="L100" s="14" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N100" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
       <c r="L101" s="14" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N101" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102">
       <c r="L102" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N102" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103">
       <c r="L103" s="14" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="N103" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104">
       <c r="L104" s="14" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="N104" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105">
       <c r="L105" s="14" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="N105" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106">
       <c r="L106" s="14" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="N106" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107">
       <c r="L107" s="14" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N107" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108">
       <c r="L108" s="14" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N108" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109">
       <c r="L109" s="14" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N109" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110">
       <c r="L110" s="14" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N110" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
       <c r="L111" s="14" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M111" s="14" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="N111" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112">
       <c r="L112" s="14" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N112" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113">
       <c r="L113" s="14" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="N113" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114">
       <c r="L114" s="14" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="N114" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115">
       <c r="L115" s="14" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M115" s="14" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N115" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116">
       <c r="L116" s="14" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="M116" s="14" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="N116" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117">
       <c r="L117" s="14" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="N117" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118">
       <c r="L118" s="14" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="N118" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119">
       <c r="L119" s="14" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M119" s="14" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="N119" s="14" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120">
       <c r="L120" s="14" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M120" s="14" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="N120" s="14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121">
       <c r="L121" s="14" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="N121" s="14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122">
       <c r="L122" s="14" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="N122" s="14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123">
       <c r="L123" s="16" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M123" s="16" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="N123" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124">
       <c r="L124" s="16" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M124" s="16" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="N124" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125">
       <c r="L125" s="16" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M125" s="16" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="N125" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126">
       <c r="L126" s="16" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M126" s="16" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="N126" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127">
       <c r="L127" s="16" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M127" s="16" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="N127" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128">
       <c r="L128" s="16" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M128" s="16" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="N128" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129">
       <c r="L129" s="16" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M129" s="16" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="N129" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130">
       <c r="L130" s="16" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M130" s="16" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="N130" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="L131" s="16" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M131" s="16" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="N131" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
       <c r="L132" s="16" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M132" s="16" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="N132" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133">
       <c r="L133" s="16" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M133" s="16" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N133" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134">
       <c r="L134" s="16" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M134" s="16" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="N134" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135">
       <c r="L135" s="16" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M135" s="16" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="N135" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136">
       <c r="L136" s="16" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M136" s="16" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="N136" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137">
       <c r="L137" s="16" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M137" s="16" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="N137" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138">
       <c r="L138" s="16" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M138" s="16" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="N138" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139">
       <c r="L139" s="16" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M139" s="16" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="N139" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140">
       <c r="L140" s="16" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M140" s="16" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="N140" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141">
       <c r="L141" s="16" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M141" s="16" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="N141" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142">
       <c r="L142" s="16" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M142" s="16" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="N142" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143">
       <c r="L143" s="16" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M143" s="16" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N143" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144">
       <c r="L144" s="16" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M144" s="16" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="N144" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145">
       <c r="L145" s="16" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M145" s="16" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="N145" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="146">
       <c r="L146" s="16" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M146" s="16" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="N146" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147">
       <c r="L147" s="16" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M147" s="16" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="N147" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148">
       <c r="L148" s="16" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M148" s="16" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="N148" s="16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149">
       <c r="L149" s="16" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M149" s="16" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="N149" s="16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150">
       <c r="L150" s="16" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M150" s="16" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="N150" s="16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151">
       <c r="L151" s="16" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M151" s="16" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="N151" s="16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152">
       <c r="L152" s="16" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M152" s="16" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N152" s="16" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153">
       <c r="L153" s="16" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M153" s="16" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="N153" s="16" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154">
       <c r="L154" s="16" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M154" s="16" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="N154" s="16" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155">
       <c r="L155" s="16" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M155" s="16" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="N155" s="16" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="156">
       <c r="L156" s="16" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M156" s="16" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="N156" s="16" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157">
       <c r="L157" s="16" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M157" s="16" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="N157" s="16" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="158">
       <c r="L158" s="16" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M158" s="16" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="N158" s="16" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159">
       <c r="L159" s="16" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M159" s="16" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="N159" s="16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160">
       <c r="L160" s="16" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M160" s="16" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="N160" s="16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161">
       <c r="L161" s="16" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M161" s="16" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="N161" s="16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
       <c r="L162" s="16" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M162" s="16" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="N162" s="16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163">
       <c r="L163" s="16" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M163" s="16" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="N163" s="16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164">
       <c r="L164" s="16" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M164" s="16" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="N164" s="16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165">
       <c r="L165" s="16" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M165" s="16" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="N165" s="16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166">
       <c r="L166" s="17" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M166" s="17" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="N166" s="17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167">
       <c r="L167" s="17" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M167" s="17" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="N167" s="17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168">
       <c r="L168" s="17" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M168" s="17" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="N168" s="17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169">
       <c r="L169" s="17" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M169" s="18" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="N169" s="17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170">
       <c r="L170" s="18" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M170" s="18" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N170" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171">
       <c r="L171" s="18" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M171" s="18" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="N171" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="172">
       <c r="L172" s="17" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M172" s="17" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N172" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="173">
       <c r="L173" s="17" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="M173" s="17" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="N173" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="174">
       <c r="L174" s="17" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="M174" s="17" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="N174" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175">
       <c r="L175" s="17" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M175" s="17" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="N175" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176">
       <c r="L176" s="17" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M176" s="17" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="N176" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177">
       <c r="L177" s="17" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="M177" s="17" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="N177" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="178">
       <c r="L178" s="18" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M178" s="18" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="N178" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179">
       <c r="L179" s="18" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="M179" s="18" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N179" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="180">
       <c r="L180" s="17" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M180" s="17" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="N180" s="17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181">
       <c r="L181" s="17" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="M181" s="17" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="N181" s="17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182">
       <c r="L182" s="17" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="M182" s="17" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="N182" s="17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183">
       <c r="L183" s="17" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="M183" s="17" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="N183" s="17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="184">
       <c r="L184" s="17" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="M184" s="17" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="N184" s="17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="185">
       <c r="L185" s="17" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M185" s="17" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="N185" s="17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="186">
       <c r="L186" s="17" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M186" s="17" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="N186" s="17" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="187">
       <c r="L187" s="17" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M187" s="17" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="N187" s="17" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188">
       <c r="L188" s="17" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="M188" s="17" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="N188" s="17" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189">
       <c r="L189" s="17" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M189" s="17" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="N189" s="17" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
